--- a/Generic_Macro/SavedData/MABMM301USM189S.xlsx
+++ b/Generic_Macro/SavedData/MABMM301USM189S.xlsx
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-29</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-29</t>
         </is>
       </c>
     </row>
